--- a/게임 기획파일/만약 내가 삼국지 장수라면 시스템기획_201002_ver.0.1.xlsx
+++ b/게임 기획파일/만약 내가 삼국지 장수라면 시스템기획_201002_ver.0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\기획\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4459A902-A301-4DE9-B563-93FF6F130770}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95982E2D-6D4F-402D-B56C-E1C936C4DF66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="250">
   <si>
     <t>일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,6 +1253,14 @@
   </si>
   <si>
     <t>search_8</t>
+  </si>
+  <si>
+    <t>4.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1864,7 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2084,6 +2092,117 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2135,54 +2254,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2252,54 +2323,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2339,17 +2362,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3876,33 +3890,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="75"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
@@ -3928,31 +3942,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="78"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="115"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -3978,31 +3992,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="81"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="118"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -4128,10 +4142,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4180,8 +4194,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4432,25 +4446,25 @@
       <c r="A13" s="4"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="106" t="s">
+      <c r="I13" s="124"/>
+      <c r="J13" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="108"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
@@ -4488,19 +4502,19 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="111"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="132"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
@@ -4594,19 +4608,19 @@
       <c r="G16" s="36"/>
       <c r="H16" s="4"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="116" t="s">
+      <c r="J16" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="117"/>
-      <c r="L16" s="100" t="s">
+      <c r="K16" s="138"/>
+      <c r="L16" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="87"/>
       <c r="S16" s="4"/>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
@@ -4648,15 +4662,15 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="105"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -4746,19 +4760,19 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="120" t="s">
+      <c r="I19" s="133"/>
+      <c r="J19" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="143"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
@@ -4800,15 +4814,15 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="146"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
@@ -4850,15 +4864,15 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="146"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
@@ -4900,15 +4914,15 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="128"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="149"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
@@ -5146,25 +5160,25 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="130"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="90" t="s">
+      <c r="H27" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="94" t="s">
+      <c r="I27" s="92"/>
+      <c r="J27" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="103"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
@@ -5202,19 +5216,19 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
       <c r="S28" s="23"/>
@@ -5406,19 +5420,19 @@
       <c r="E32" s="4"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="91"/>
-      <c r="J32" s="100" t="s">
+      <c r="I32" s="92"/>
+      <c r="J32" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="102"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
@@ -5460,15 +5474,15 @@
       <c r="E33" s="4"/>
       <c r="F33" s="12"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="105"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="90"/>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
       <c r="S33" s="23"/>
@@ -5660,19 +5674,19 @@
       <c r="E37" s="4"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="90" t="s">
+      <c r="H37" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="100" t="s">
+      <c r="I37" s="92"/>
+      <c r="J37" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="102"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="87"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
@@ -5714,15 +5728,15 @@
       <c r="E38" s="4"/>
       <c r="F38" s="12"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="105"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="90"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
@@ -5816,19 +5830,19 @@
       <c r="G40" s="36"/>
       <c r="H40" s="4"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="136" t="s">
+      <c r="J40" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="K40" s="137"/>
-      <c r="L40" s="94" t="s">
+      <c r="K40" s="96"/>
+      <c r="L40" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="96"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="103"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -5870,15 +5884,15 @@
       <c r="G41" s="36"/>
       <c r="H41" s="4"/>
       <c r="I41" s="38"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="99"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="109"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -5970,19 +5984,19 @@
       <c r="G43" s="36"/>
       <c r="H43" s="4"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="136" t="s">
+      <c r="J43" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="137"/>
-      <c r="L43" s="94" t="s">
+      <c r="K43" s="96"/>
+      <c r="L43" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="96"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="103"/>
       <c r="S43" s="4"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -6024,15 +6038,15 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="99"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="109"/>
       <c r="S44" s="4"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -6222,19 +6236,19 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="43"/>
-      <c r="H48" s="90" t="s">
+      <c r="H48" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="94" t="s">
+      <c r="I48" s="92"/>
+      <c r="J48" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="96"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="103"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="49"/>
       <c r="S48" s="7"/>
@@ -6271,22 +6285,22 @@
     <row r="49" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="133" t="s">
+      <c r="C49" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="12"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="141"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="143"/>
-      <c r="L49" s="143"/>
-      <c r="M49" s="143"/>
-      <c r="N49" s="143"/>
-      <c r="O49" s="143"/>
-      <c r="P49" s="144"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="106"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="49"/>
       <c r="S49" s="7"/>
@@ -6323,20 +6337,20 @@
     <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="12"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="143"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="143"/>
-      <c r="N50" s="143"/>
-      <c r="O50" s="143"/>
-      <c r="P50" s="144"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="106"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="49"/>
       <c r="S50" s="7"/>
@@ -6373,20 +6387,20 @@
     <row r="51" spans="1:48" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="12"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="98"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="98"/>
-      <c r="O51" s="98"/>
-      <c r="P51" s="99"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="109"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="49"/>
       <c r="S51" s="7"/>
@@ -6578,19 +6592,19 @@
       <c r="E55" s="8"/>
       <c r="F55" s="7"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="90" t="s">
+      <c r="H55" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="91"/>
-      <c r="J55" s="94" t="s">
+      <c r="I55" s="92"/>
+      <c r="J55" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="96"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="103"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="49"/>
       <c r="S55" s="7"/>
@@ -6632,15 +6646,15 @@
       <c r="E56" s="8"/>
       <c r="F56" s="7"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="99"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="109"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="49"/>
       <c r="S56" s="7"/>
@@ -7646,15 +7660,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="C49:E51"/>
-    <mergeCell ref="L16:R17"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="H48:I51"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="J48:P51"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D13:E14"/>
@@ -7671,6 +7676,15 @@
     <mergeCell ref="J27:P28"/>
     <mergeCell ref="J32:P33"/>
     <mergeCell ref="H27:I28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="C49:E51"/>
+    <mergeCell ref="L16:R17"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="H48:I51"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="J48:P51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7718,7 +7732,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="76" t="s">
         <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7727,10 +7741,10 @@
       <c r="C2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="76" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="26">
@@ -7738,7 +7752,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="76" t="s">
         <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7747,10 +7761,10 @@
       <c r="C3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="26">
@@ -7758,7 +7772,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="76" t="s">
         <v>242</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7767,10 +7781,10 @@
       <c r="C4" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="160" t="s">
+      <c r="E4" s="76" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="26">
@@ -7778,7 +7792,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="76" t="s">
         <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7787,10 +7801,10 @@
       <c r="C5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="26">
@@ -7798,7 +7812,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="76" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7807,10 +7821,10 @@
       <c r="C6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="76" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="26">
@@ -7818,7 +7832,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="76" t="s">
         <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7827,10 +7841,10 @@
       <c r="C7" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="76" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="26">
@@ -7838,7 +7852,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="76" t="s">
         <v>246</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7847,10 +7861,10 @@
       <c r="C8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="76" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="26">
@@ -7858,7 +7872,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="76" t="s">
         <v>247</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7867,10 +7881,10 @@
       <c r="C9" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="76" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="26">
@@ -7887,7 +7901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7B4760-7B2C-40BD-9B76-CD408C97D218}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -8118,7 +8132,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8141,49 +8155,49 @@
       <c r="B2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="156" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155"/>
     </row>
     <row r="5" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="147"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="152"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
@@ -8412,36 +8426,36 @@
       <c r="B2" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="158" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
     </row>
     <row r="3" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="63" t="s">
         <v>197</v>
       </c>
@@ -8450,24 +8464,24 @@
       <c r="B5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
       <c r="G6" s="69" t="s">
         <v>220</v>
       </c>
@@ -8628,9 +8642,9 @@
         <f t="shared" si="3"/>
         <v>1.1576250000000001</v>
       </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -8653,9 +8667,9 @@
         <f t="shared" si="3"/>
         <v>1.2155062500000002</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10680,27 +10694,27 @@
       <c r="B2" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11695,9 +11709,9 @@
       <c r="U22" s="6"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
       <c r="R26" s="23" t="s">
         <v>211</v>
       </c>
@@ -11714,10 +11728,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB45B9FC-A303-4B94-A2F4-69E06667EA3A}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11729,50 +11743,55 @@
     <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="75" t="s">
         <v>46</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="J1" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="159" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="K1" s="72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -11793,18 +11812,21 @@
       <c r="G2" s="26">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>60</v>
+      <c r="H2" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
         <v>4801</v>
       </c>
-      <c r="K2" s="70">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="K2" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11825,15 +11847,21 @@
       <c r="G3" s="26">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
-        <v>60</v>
+      <c r="H3" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I3" s="1">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
         <v>4801</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="158" t="s">
+      <c r="K3" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11854,18 +11882,21 @@
       <c r="G4" s="26">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>60</v>
+      <c r="H4" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I4" s="1">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
         <v>4801</v>
       </c>
-      <c r="K4" s="161" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="K4" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11886,18 +11917,21 @@
       <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>60</v>
+      <c r="H5" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I5" s="1">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
         <v>4801</v>
       </c>
-      <c r="K5" s="70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="158" t="s">
+      <c r="K5" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11918,15 +11952,21 @@
       <c r="G6" s="26">
         <v>0.1</v>
       </c>
-      <c r="H6" s="1">
-        <v>60</v>
+      <c r="H6" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1">
         <v>4801</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="158" t="s">
+      <c r="K6" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11947,15 +11987,21 @@
       <c r="G7" s="26">
         <v>0.1</v>
       </c>
-      <c r="H7" s="1">
-        <v>60</v>
+      <c r="H7" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
         <v>4801</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="158" t="s">
+      <c r="K7" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11976,18 +12022,24 @@
       <c r="G8" s="26">
         <v>0.1</v>
       </c>
-      <c r="H8" s="1">
-        <v>60</v>
+      <c r="H8" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
         <v>4801</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="K8" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="S8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="158" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="74" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -12008,38 +12060,47 @@
       <c r="G9" s="26">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
-        <v>60</v>
+      <c r="H9" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="I9" s="1">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
         <v>4801</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="K9" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R10" s="24" t="s">
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R11" s="24" t="s">
+    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="K12" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="S12" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -12047,11 +12108,14 @@
         <f>C12*1.06</f>
         <v>15.9</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="K13" s="73">
+        <v>1.06</v>
+      </c>
+      <c r="S13" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3</v>
       </c>
@@ -12059,11 +12123,11 @@
         <f t="shared" ref="C14:C77" si="0">C13*1.06</f>
         <v>16.854000000000003</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="S14" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4</v>
       </c>
@@ -12071,11 +12135,14 @@
         <f t="shared" si="0"/>
         <v>17.865240000000004</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="K15" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="S15" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
@@ -12083,11 +12150,14 @@
         <f t="shared" si="0"/>
         <v>18.937154400000004</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="K16" s="73">
+        <v>100</v>
+      </c>
+      <c r="S16" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -12095,11 +12165,11 @@
         <f t="shared" si="0"/>
         <v>20.073383664000005</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="S17" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -12107,11 +12177,11 @@
         <f t="shared" si="0"/>
         <v>21.277786683840006</v>
       </c>
-      <c r="R18" s="24" t="s">
+      <c r="S18" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8</v>
       </c>
@@ -12119,11 +12189,11 @@
         <f t="shared" si="0"/>
         <v>22.554453884870409</v>
       </c>
-      <c r="R19" s="24" t="s">
+      <c r="S19" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9</v>
       </c>
@@ -12131,11 +12201,11 @@
         <f t="shared" si="0"/>
         <v>23.907721117962634</v>
       </c>
-      <c r="R20" s="24" t="s">
+      <c r="S20" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
@@ -12143,11 +12213,11 @@
         <f t="shared" si="0"/>
         <v>25.342184385040394</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="S21" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>11</v>
       </c>
@@ -12155,11 +12225,11 @@
         <f t="shared" si="0"/>
         <v>26.862715448142819</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="S22" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>12</v>
       </c>
@@ -12167,11 +12237,11 @@
         <f t="shared" si="0"/>
         <v>28.474478375031389</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="S23" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>13</v>
       </c>
@@ -12180,7 +12250,7 @@
         <v>30.182947077533274</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>14</v>
       </c>
@@ -12189,7 +12259,7 @@
         <v>31.993923902185273</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>15</v>
       </c>
@@ -12198,7 +12268,7 @@
         <v>33.913559336316389</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>16</v>
       </c>
@@ -12207,7 +12277,7 @@
         <v>35.948372896495371</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>17</v>
       </c>
@@ -12216,7 +12286,7 @@
         <v>38.105275270285098</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>18</v>
       </c>
@@ -12225,7 +12295,7 @@
         <v>40.391591786502204</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>19</v>
       </c>
@@ -12234,7 +12304,7 @@
         <v>42.815087293692336</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>20</v>
       </c>
@@ -12243,7 +12313,7 @@
         <v>45.383992531313879</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>21</v>
       </c>
@@ -12975,7 +13045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B73C0-7DF7-432B-9183-9C25C37F34FA}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -12992,10 +13062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="75" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="72" t="s">
@@ -13004,16 +13074,16 @@
       <c r="D1" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="77" t="s">
         <v>231</v>
       </c>
     </row>
